--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ina11\git_practice\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2513A9BF-C512-4EF4-8BAF-283443B23824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDEAB62-14F2-4913-81BC-50ECBCE556E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CF70D8AF-CDC0-41A2-BE6A-4F4C5EC130B9}"/>
   </bookViews>
@@ -31,9 +31,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>マスターへのマージがわからん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターで更新</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -398,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC573D6C-1DB8-44DD-A89F-F5302644E286}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -411,6 +418,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
